--- a/Excel2IDS.xlsx
+++ b/Excel2IDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Excel2IDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821B3F4-19B3-44E5-A34F-8833F6F15BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38445C6C-F3CC-46A8-93DD-F28B824C56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="803">
   <si>
     <t>EXCEL2IDS Generator</t>
   </si>
@@ -2255,9 +2255,6 @@
   </si>
   <si>
     <t>Slab of predefined type 'floor'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFCLABEL          </t>
   </si>
   <si>
     <t>Only the project</t>
@@ -2491,9 +2488,6 @@
     <t>".*[Ss]teel.*"</t>
   </si>
   <si>
-    <t>".*"</t>
-  </si>
-  <si>
     <t>"[A-Z]{2,3}"</t>
   </si>
   <si>
@@ -2531,9 +2525,6 @@
   </si>
   <si>
     <t>pnam</t>
-  </si>
-  <si>
-    <t>val</t>
   </si>
   <si>
     <t>instr</t>
@@ -2709,6 +2700,9 @@
   </si>
   <si>
     <t>Fixed set</t>
+  </si>
+  <si>
+    <t>"XYZ.*"</t>
   </si>
 </sst>
 </file>
@@ -3438,7 +3432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3746,11 +3740,40 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4121,23 +4144,23 @@
   <dimension ref="A1:X315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="3" customWidth="1"/>
-    <col min="9" max="17" width="17.81640625" style="1" customWidth="1"/>
-    <col min="18" max="23" width="20.81640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6328125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="3" customWidth="1"/>
+    <col min="9" max="17" width="17.77734375" style="1" customWidth="1"/>
+    <col min="18" max="23" width="20.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" ht="60.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" customFormat="1" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4172,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="16"/>
       <c r="I1" s="108" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
@@ -4158,10 +4181,10 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="92" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R1" s="34" t="s">
         <v>2</v>
@@ -4182,9 +4205,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="87" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -4194,10 +4217,10 @@
       <c r="G2" s="77"/>
       <c r="H2" s="44"/>
       <c r="I2" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K2" s="100"/>
       <c r="L2" s="101"/>
@@ -4206,13 +4229,13 @@
       <c r="O2" s="38"/>
       <c r="P2" s="92"/>
       <c r="Q2" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S2" s="78" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T2" s="78" t="s">
         <v>735</v>
@@ -4227,7 +4250,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="87"/>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
@@ -4237,10 +4260,10 @@
       <c r="G3" s="77"/>
       <c r="H3" s="44"/>
       <c r="I3" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K3" s="90"/>
       <c r="L3" s="91"/>
@@ -4249,10 +4272,10 @@
       <c r="O3" s="38"/>
       <c r="P3" s="92"/>
       <c r="Q3" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R3" s="78" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="S3" s="78"/>
       <c r="T3" s="78"/>
@@ -4260,7 +4283,7 @@
       <c r="V3" s="78"/>
       <c r="W3" s="78"/>
     </row>
-    <row r="4" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="87"/>
       <c r="B4" s="87"/>
       <c r="C4" s="87"/>
@@ -4270,7 +4293,7 @@
       <c r="G4" s="77"/>
       <c r="H4" s="44"/>
       <c r="I4" s="43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J4" s="102">
         <v>45498</v>
@@ -4282,10 +4305,10 @@
       <c r="O4" s="15"/>
       <c r="P4" s="92"/>
       <c r="Q4" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R4" s="79" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="S4" s="79"/>
       <c r="T4" s="79"/>
@@ -4293,7 +4316,7 @@
       <c r="V4" s="79"/>
       <c r="W4" s="79"/>
     </row>
-    <row r="5" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="87"/>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -4303,7 +4326,7 @@
       <c r="G5" s="77"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J5" s="105">
         <v>0.9</v>
@@ -4315,28 +4338,28 @@
       <c r="O5" s="59"/>
       <c r="P5" s="92"/>
       <c r="Q5" s="49" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R5" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="U5" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="V5" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="W5" s="80" t="s">
         <v>784</v>
       </c>
-      <c r="S5" s="80" t="s">
-        <v>785</v>
-      </c>
-      <c r="T5" s="80" t="s">
-        <v>785</v>
-      </c>
-      <c r="U5" s="80" t="s">
-        <v>786</v>
-      </c>
-      <c r="V5" s="80" t="s">
-        <v>784</v>
-      </c>
-      <c r="W5" s="80" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
@@ -4346,7 +4369,7 @@
       <c r="G6" s="77"/>
       <c r="H6" s="14"/>
       <c r="I6" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J6" s="89"/>
       <c r="K6" s="90"/>
@@ -4362,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="53" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T6" s="53" t="s">
         <v>9</v>
@@ -4375,7 +4398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="87"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
@@ -4385,10 +4408,10 @@
       <c r="G7" s="77"/>
       <c r="H7" s="14"/>
       <c r="I7" s="54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K7" s="90"/>
       <c r="L7" s="91"/>
@@ -4408,7 +4431,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -4418,10 +4441,10 @@
       <c r="G8" s="77"/>
       <c r="H8" s="14"/>
       <c r="I8" s="55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J8" s="93" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K8" s="94"/>
       <c r="L8" s="95"/>
@@ -4429,13 +4452,13 @@
       <c r="N8" s="15"/>
       <c r="O8" s="59"/>
       <c r="P8" s="92" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q8" s="36" t="s">
         <v>729</v>
       </c>
       <c r="R8" s="51" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S8" s="51"/>
       <c r="T8" s="51" t="s">
@@ -4445,7 +4468,7 @@
       <c r="V8" s="51"/>
       <c r="W8" s="51"/>
     </row>
-    <row r="9" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
@@ -4466,7 +4489,7 @@
         <v>730</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
@@ -4476,7 +4499,7 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -4496,8 +4519,8 @@
       <c r="Q10" s="28" t="s">
         <v>733</v>
       </c>
-      <c r="R10" s="13" t="s">
-        <v>791</v>
+      <c r="R10" s="13">
+        <v>0.123</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="13" t="b">
@@ -4507,7 +4530,7 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="87"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
@@ -4525,7 +4548,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="92"/>
       <c r="Q11" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R11" s="35" t="s">
         <v>29</v>
@@ -4538,7 +4561,7 @@
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
     </row>
-    <row r="12" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
@@ -4567,7 +4590,7 @@
       <c r="V12" s="53"/>
       <c r="W12" s="53"/>
     </row>
-    <row r="13" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="87"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
@@ -4591,12 +4614,12 @@
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="V13" s="48"/>
       <c r="W13" s="48"/>
     </row>
-    <row r="14" spans="1:23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
@@ -4614,7 +4637,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
@@ -4623,7 +4646,7 @@
       <c r="V14" s="51"/>
       <c r="W14" s="51"/>
     </row>
-    <row r="15" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4641,7 +4664,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
@@ -4650,7 +4673,7 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
     </row>
-    <row r="16" spans="1:23" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4675,11 +4698,11 @@
       <c r="T16" s="50"/>
       <c r="U16" s="50"/>
       <c r="V16" s="50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W16" s="50"/>
     </row>
-    <row r="17" spans="1:24" customFormat="1" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" customFormat="1" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="87"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
@@ -4688,7 +4711,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="45" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -4698,36 +4721,36 @@
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
       <c r="P17" s="86" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T17" s="25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="V17" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" customFormat="1" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" customFormat="1" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>732</v>
@@ -4745,10 +4768,10 @@
         <v>733</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>4</v>
@@ -4757,22 +4780,22 @@
         <v>5</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M18" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>770</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>771</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R18" s="26" t="b">
         <v>1</v>
@@ -4793,29 +4816,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="64"/>
       <c r="E19" s="63" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="65"/>
@@ -4824,7 +4847,7 @@
       <c r="N19" s="66"/>
       <c r="O19" s="68"/>
       <c r="P19" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q19" s="23" t="b">
         <v>1</v>
@@ -4842,10 +4865,10 @@
       </c>
       <c r="W19" s="31"/>
     </row>
-    <row r="20" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
       <c r="B20" s="63" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="64"/>
@@ -4855,7 +4878,9 @@
       <c r="F20" s="65" t="s">
         <v>717</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="109">
+        <v>123</v>
+      </c>
       <c r="H20" s="69" t="s">
         <v>379</v>
       </c>
@@ -4867,7 +4892,7 @@
       <c r="N20" s="66"/>
       <c r="O20" s="68"/>
       <c r="P20" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q20" s="22" t="b">
         <v>1</v>
@@ -4885,10 +4910,10 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
     </row>
-    <row r="21" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
       <c r="B21" s="63" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C21" s="63"/>
       <c r="D21" s="64"/>
@@ -4900,7 +4925,7 @@
       </c>
       <c r="G21" s="65"/>
       <c r="H21" s="69" t="s">
-        <v>739</v>
+        <v>174</v>
       </c>
       <c r="I21" s="66"/>
       <c r="J21" s="67"/>
@@ -4910,7 +4935,7 @@
       <c r="N21" s="66"/>
       <c r="O21" s="68"/>
       <c r="P21" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q21" s="22" t="b">
         <v>0</v>
@@ -4924,10 +4949,10 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
       <c r="B22" s="63" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="64"/>
@@ -4949,7 +4974,7 @@
       <c r="N22" s="66"/>
       <c r="O22" s="68"/>
       <c r="P22" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q22" s="21" t="b">
         <v>0</v>
@@ -4963,10 +4988,10 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="63"/>
       <c r="B23" s="63" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C23" s="63"/>
       <c r="D23" s="64"/>
@@ -4977,10 +5002,10 @@
         <v>720</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>778</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>174</v>
+        <v>776</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>664</v>
       </c>
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
@@ -4990,7 +5015,7 @@
       <c r="N23" s="66"/>
       <c r="O23" s="68"/>
       <c r="P23" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q23" s="21" t="b">
         <v>1</v>
@@ -5006,10 +5031,10 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
     </row>
-    <row r="24" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="63"/>
       <c r="B24" s="63" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="64"/>
@@ -5022,14 +5047,14 @@
         <v>721</v>
       </c>
       <c r="K24" s="65" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="L24" s="66"/>
       <c r="M24" s="67"/>
       <c r="N24" s="66"/>
       <c r="O24" s="68"/>
       <c r="P24" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q24" s="22" t="b">
         <v>1</v>
@@ -5041,20 +5066,18 @@
       <c r="V24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="W24" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63"/>
       <c r="B25" s="63" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C25" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E25" s="70"/>
       <c r="F25" s="72"/>
@@ -5065,14 +5088,14 @@
       <c r="K25" s="72"/>
       <c r="L25" s="73"/>
       <c r="M25" s="74" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="N25" s="73" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="85" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q25" s="22" t="b">
         <v>1</v>
@@ -5086,18 +5109,18 @@
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
     </row>
-    <row r="26" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70"/>
       <c r="B26" s="70" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
       <c r="E26" s="82" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G26" s="72"/>
       <c r="H26" s="81"/>
@@ -5109,7 +5132,7 @@
       <c r="N26" s="73"/>
       <c r="O26" s="75"/>
       <c r="P26" s="85" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q26" s="60" t="b">
         <v>1</v>
@@ -5118,15 +5141,15 @@
       <c r="S26" s="62"/>
       <c r="T26" s="62"/>
       <c r="U26" s="62" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="V26" s="62"/>
       <c r="W26" s="62"/>
     </row>
-    <row r="27" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63"/>
       <c r="B27" s="63" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
@@ -5144,7 +5167,7 @@
         <v>721</v>
       </c>
       <c r="P27" s="84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q27" s="21" t="b">
         <v>1</v>
@@ -5156,877 +5179,875 @@
         <v>19</v>
       </c>
       <c r="V27" s="11"/>
-      <c r="W27" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H28" s="4"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H29" s="4"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H223" s="4"/>
     </row>
-    <row r="224" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H284" s="4"/>
     </row>
-    <row r="285" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H288" s="4"/>
     </row>
-    <row r="289" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H289" s="4"/>
     </row>
-    <row r="290" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H291" s="4"/>
     </row>
-    <row r="292" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H292" s="4"/>
     </row>
-    <row r="293" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H293" s="4"/>
     </row>
-    <row r="294" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H294" s="4"/>
     </row>
-    <row r="295" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H295" s="4"/>
     </row>
-    <row r="296" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H296" s="4"/>
     </row>
-    <row r="297" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H297" s="4"/>
     </row>
-    <row r="298" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H298" s="4"/>
     </row>
-    <row r="299" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H299" s="4"/>
     </row>
-    <row r="300" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H300" s="4"/>
     </row>
-    <row r="301" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H301" s="4"/>
     </row>
-    <row r="302" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H302" s="4"/>
     </row>
-    <row r="303" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H303" s="4"/>
     </row>
-    <row r="304" spans="8:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="8:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H304" s="4"/>
     </row>
-    <row r="305" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H305" s="4"/>
     </row>
-    <row r="306" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H306" s="4"/>
     </row>
-    <row r="307" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H307" s="4"/>
     </row>
-    <row r="308" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H308" s="4"/>
     </row>
-    <row r="309" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H309" s="4"/>
     </row>
-    <row r="310" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H310" s="4"/>
     </row>
-    <row r="311" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H311" s="4"/>
     </row>
-    <row r="312" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H312" s="4"/>
     </row>
-    <row r="313" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H313" s="4"/>
     </row>
-    <row r="314" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H314" s="4"/>
     </row>
-    <row r="315" spans="3:23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -6066,27 +6087,37 @@
     <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A19:B27">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A19:B27 C19:W20 C23:G23 I23:W23 C22:W22 C21:G21 I21:W21">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$Q19=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:W23 C24:I24 L24:W24 C25:W27">
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$Q19=FALSE</formula>
+  <conditionalFormatting sqref="C24:I24 L24:W24 C25:W27">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$Q24=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>$Q25=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:W27">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>R$18=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>$Q23=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$Q23=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:W18 Q19:Q27" xr:uid="{59905F35-D42F-459C-BEEA-866394E0EECF}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -6098,7 +6129,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8900902-9F43-4C20-AE2B-27AE48617DAB}">
           <x14:formula1>
             <xm:f>ENUMS!$B$3:$B$394</xm:f>
@@ -6125,23 +6156,23 @@
       <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="5"/>
-    <col min="2" max="2" width="61.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="5"/>
-    <col min="4" max="4" width="51.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="5"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="61.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="51.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
     <col min="6" max="6" width="30" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="5"/>
+    <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
@@ -6150,10 +6181,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
@@ -6165,7 +6196,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
@@ -6177,7 +6208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
@@ -6201,7 +6232,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
@@ -6213,7 +6244,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
@@ -6225,7 +6256,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
@@ -6237,7 +6268,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
@@ -6249,7 +6280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
@@ -6261,7 +6292,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
@@ -6273,7 +6304,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
@@ -6285,7 +6316,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
@@ -6297,7 +6328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
@@ -6309,7 +6340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -6321,7 +6352,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
@@ -6333,7 +6364,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
@@ -6345,7 +6376,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
@@ -6357,7 +6388,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
@@ -6369,7 +6400,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
@@ -6381,7 +6412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
@@ -6393,7 +6424,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -6405,7 +6436,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>65</v>
       </c>
@@ -6417,7 +6448,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>67</v>
       </c>
@@ -6429,7 +6460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>69</v>
       </c>
@@ -6441,7 +6472,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>71</v>
       </c>
@@ -6453,7 +6484,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>73</v>
       </c>
@@ -6465,7 +6496,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>77</v>
       </c>
@@ -6489,7 +6520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>79</v>
       </c>
@@ -6501,7 +6532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>81</v>
       </c>
@@ -6513,7 +6544,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>83</v>
       </c>
@@ -6525,7 +6556,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>85</v>
       </c>
@@ -6537,7 +6568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>87</v>
       </c>
@@ -6549,7 +6580,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>89</v>
       </c>
@@ -6561,7 +6592,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>91</v>
       </c>
@@ -6573,7 +6604,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>93</v>
       </c>
@@ -6585,7 +6616,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>95</v>
       </c>
@@ -6597,7 +6628,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>97</v>
       </c>
@@ -6609,7 +6640,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>99</v>
       </c>
@@ -6621,7 +6652,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>101</v>
       </c>
@@ -6633,7 +6664,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>103</v>
       </c>
@@ -6645,7 +6676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>105</v>
       </c>
@@ -6657,7 +6688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
@@ -6669,7 +6700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>109</v>
       </c>
@@ -6681,7 +6712,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>111</v>
       </c>
@@ -6693,7 +6724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>113</v>
       </c>
@@ -6705,7 +6736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>115</v>
       </c>
@@ -6717,7 +6748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>117</v>
       </c>
@@ -6729,7 +6760,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>119</v>
       </c>
@@ -6741,7 +6772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>120</v>
       </c>
@@ -6753,7 +6784,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>122</v>
       </c>
@@ -6765,7 +6796,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>124</v>
       </c>
@@ -6777,7 +6808,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>126</v>
       </c>
@@ -6789,7 +6820,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>128</v>
       </c>
@@ -6801,7 +6832,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>130</v>
       </c>
@@ -6813,7 +6844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>132</v>
       </c>
@@ -6825,7 +6856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>134</v>
       </c>
@@ -6837,7 +6868,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>136</v>
       </c>
@@ -6849,7 +6880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>138</v>
       </c>
@@ -6861,7 +6892,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>140</v>
       </c>
@@ -6873,7 +6904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>142</v>
       </c>
@@ -6885,7 +6916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>144</v>
       </c>
@@ -6897,7 +6928,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>146</v>
       </c>
@@ -6909,7 +6940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>148</v>
       </c>
@@ -6921,7 +6952,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>150</v>
       </c>
@@ -6933,7 +6964,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>152</v>
       </c>
@@ -6945,7 +6976,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>154</v>
       </c>
@@ -6957,7 +6988,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>156</v>
       </c>
@@ -6969,7 +7000,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>158</v>
       </c>
@@ -6981,7 +7012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>160</v>
       </c>
@@ -6993,7 +7024,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>162</v>
       </c>
@@ -7005,7 +7036,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>164</v>
       </c>
@@ -7017,7 +7048,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>166</v>
       </c>
@@ -7029,7 +7060,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>168</v>
       </c>
@@ -7041,7 +7072,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>170</v>
       </c>
@@ -7053,7 +7084,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>172</v>
       </c>
@@ -7065,7 +7096,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>174</v>
       </c>
@@ -7077,7 +7108,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>176</v>
       </c>
@@ -7089,7 +7120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>178</v>
       </c>
@@ -7101,7 +7132,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>179</v>
       </c>
@@ -7113,7 +7144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>181</v>
       </c>
@@ -7125,7 +7156,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>183</v>
       </c>
@@ -7137,7 +7168,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>185</v>
       </c>
@@ -7149,7 +7180,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>187</v>
       </c>
@@ -7161,7 +7192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>189</v>
       </c>
@@ -7173,7 +7204,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>191</v>
       </c>
@@ -7185,7 +7216,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>193</v>
       </c>
@@ -7197,7 +7228,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>194</v>
       </c>
@@ -7209,7 +7240,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>196</v>
       </c>
@@ -7221,7 +7252,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
         <v>198</v>
       </c>
@@ -7233,7 +7264,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>200</v>
       </c>
@@ -7245,7 +7276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>202</v>
       </c>
@@ -7257,7 +7288,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>204</v>
       </c>
@@ -7269,7 +7300,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>206</v>
       </c>
@@ -7281,7 +7312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>208</v>
       </c>
@@ -7293,7 +7324,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>210</v>
       </c>
@@ -7305,7 +7336,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>212</v>
       </c>
@@ -7317,7 +7348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>214</v>
       </c>
@@ -7329,7 +7360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>216</v>
       </c>
@@ -7341,7 +7372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>218</v>
       </c>
@@ -7353,7 +7384,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>220</v>
       </c>
@@ -7365,7 +7396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>222</v>
       </c>
@@ -7377,7 +7408,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>224</v>
       </c>
@@ -7389,7 +7420,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>226</v>
       </c>
@@ -7401,7 +7432,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>228</v>
       </c>
@@ -7413,7 +7444,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
         <v>230</v>
       </c>
@@ -7425,7 +7456,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>232</v>
       </c>
@@ -7437,7 +7468,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>234</v>
       </c>
@@ -7449,7 +7480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>236</v>
       </c>
@@ -7461,7 +7492,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
         <v>238</v>
       </c>
@@ -7473,7 +7504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>240</v>
       </c>
@@ -7485,7 +7516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
         <v>242</v>
       </c>
@@ -7497,7 +7528,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>244</v>
       </c>
@@ -7509,7 +7540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
         <v>246</v>
       </c>
@@ -7521,7 +7552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>248</v>
       </c>
@@ -7533,7 +7564,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
         <v>250</v>
       </c>
@@ -7545,7 +7576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>252</v>
       </c>
@@ -7557,7 +7588,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>254</v>
       </c>
@@ -7569,7 +7600,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
         <v>256</v>
       </c>
@@ -7581,7 +7612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>258</v>
       </c>
@@ -7593,7 +7624,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>260</v>
       </c>
@@ -7602,7 +7633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
         <v>262</v>
       </c>
@@ -7611,7 +7642,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>264</v>
       </c>
@@ -7620,7 +7651,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
         <v>266</v>
       </c>
@@ -7629,7 +7660,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>268</v>
       </c>
@@ -7638,7 +7669,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
         <v>270</v>
       </c>
@@ -7647,7 +7678,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
         <v>272</v>
       </c>
@@ -7656,7 +7687,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
         <v>274</v>
       </c>
@@ -7665,7 +7696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
         <v>276</v>
       </c>
@@ -7674,7 +7705,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
         <v>278</v>
       </c>
@@ -7683,7 +7714,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>280</v>
       </c>
@@ -7692,7 +7723,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
         <v>282</v>
       </c>
@@ -7701,7 +7732,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>284</v>
       </c>
@@ -7710,7 +7741,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
         <v>286</v>
       </c>
@@ -7719,7 +7750,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
         <v>288</v>
       </c>
@@ -7728,7 +7759,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
         <v>290</v>
       </c>
@@ -7737,7 +7768,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
         <v>292</v>
       </c>
@@ -7746,7 +7777,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
         <v>294</v>
       </c>
@@ -7755,7 +7786,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
         <v>296</v>
       </c>
@@ -7764,7 +7795,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
         <v>298</v>
       </c>
@@ -7773,7 +7804,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>300</v>
       </c>
@@ -7782,7 +7813,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
         <v>302</v>
       </c>
@@ -7791,7 +7822,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
         <v>304</v>
       </c>
@@ -7800,7 +7831,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
         <v>306</v>
       </c>
@@ -7809,7 +7840,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
         <v>308</v>
       </c>
@@ -7818,7 +7849,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
         <v>310</v>
       </c>
@@ -7827,7 +7858,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
         <v>312</v>
       </c>
@@ -7836,7 +7867,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
         <v>314</v>
       </c>
@@ -7845,7 +7876,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
         <v>316</v>
       </c>
@@ -7854,7 +7885,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
         <v>318</v>
       </c>
@@ -7863,7 +7894,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
         <v>320</v>
       </c>
@@ -7872,7 +7903,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
         <v>322</v>
       </c>
@@ -7881,7 +7912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
         <v>324</v>
       </c>
@@ -7890,7 +7921,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
         <v>326</v>
       </c>
@@ -7899,7 +7930,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
         <v>328</v>
       </c>
@@ -7908,7 +7939,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
         <v>330</v>
       </c>
@@ -7917,7 +7948,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
         <v>332</v>
       </c>
@@ -7926,7 +7957,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
         <v>334</v>
       </c>
@@ -7935,7 +7966,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
         <v>336</v>
       </c>
@@ -7944,7 +7975,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7984,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
         <v>340</v>
       </c>
@@ -7962,7 +7993,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="9" t="s">
         <v>342</v>
       </c>
@@ -7971,7 +8002,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
         <v>344</v>
       </c>
@@ -7980,7 +8011,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
         <v>346</v>
       </c>
@@ -7989,7 +8020,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
         <v>348</v>
       </c>
@@ -7998,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
         <v>21</v>
       </c>
@@ -8007,7 +8038,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
         <v>351</v>
       </c>
@@ -8016,7 +8047,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
         <v>353</v>
       </c>
@@ -8025,7 +8056,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
         <v>355</v>
       </c>
@@ -8034,7 +8065,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
         <v>357</v>
       </c>
@@ -8043,7 +8074,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
         <v>359</v>
       </c>
@@ -8052,7 +8083,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
         <v>361</v>
       </c>
@@ -8061,7 +8092,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
         <v>363</v>
       </c>
@@ -8070,7 +8101,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
         <v>365</v>
       </c>
@@ -8079,7 +8110,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
         <v>367</v>
       </c>
@@ -8088,7 +8119,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
         <v>369</v>
       </c>
@@ -8097,7 +8128,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
         <v>371</v>
       </c>
@@ -8106,7 +8137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
         <v>373</v>
       </c>
@@ -8115,7 +8146,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
         <v>375</v>
       </c>
@@ -8124,7 +8155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
         <v>377</v>
       </c>
@@ -8133,7 +8164,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
         <v>379</v>
       </c>
@@ -8142,7 +8173,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
         <v>381</v>
       </c>
@@ -8151,7 +8182,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
         <v>383</v>
       </c>
@@ -8160,7 +8191,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
         <v>385</v>
       </c>
@@ -8169,7 +8200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
         <v>387</v>
       </c>
@@ -8178,7 +8209,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
         <v>389</v>
       </c>
@@ -8187,7 +8218,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
         <v>391</v>
       </c>
@@ -8196,7 +8227,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
         <v>393</v>
       </c>
@@ -8205,7 +8236,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
         <v>395</v>
       </c>
@@ -8214,7 +8245,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="9" t="s">
         <v>397</v>
       </c>
@@ -8223,7 +8254,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
         <v>399</v>
       </c>
@@ -8232,7 +8263,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
         <v>401</v>
       </c>
@@ -8241,7 +8272,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
         <v>403</v>
       </c>
@@ -8250,7 +8281,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
         <v>405</v>
       </c>
@@ -8259,7 +8290,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
         <v>407</v>
       </c>
@@ -8268,7 +8299,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="9" t="s">
         <v>409</v>
       </c>
@@ -8277,7 +8308,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
         <v>411</v>
       </c>
@@ -8286,7 +8317,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
         <v>413</v>
       </c>
@@ -8295,7 +8326,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
         <v>415</v>
       </c>
@@ -8304,7 +8335,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
         <v>417</v>
       </c>
@@ -8313,7 +8344,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
         <v>419</v>
       </c>
@@ -8322,7 +8353,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
         <v>421</v>
       </c>
@@ -8331,7 +8362,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
         <v>423</v>
       </c>
@@ -8340,7 +8371,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="9" t="s">
         <v>425</v>
       </c>
@@ -8349,7 +8380,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
         <v>427</v>
       </c>
@@ -8358,7 +8389,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
         <v>429</v>
       </c>
@@ -8367,7 +8398,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
         <v>431</v>
       </c>
@@ -8376,7 +8407,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
         <v>433</v>
       </c>
@@ -8385,7 +8416,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
         <v>435</v>
       </c>
@@ -8394,7 +8425,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
         <v>437</v>
       </c>
@@ -8403,7 +8434,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
         <v>439</v>
       </c>
@@ -8412,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
         <v>440</v>
       </c>
@@ -8421,7 +8452,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
         <v>442</v>
       </c>
@@ -8430,7 +8461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="9" t="s">
         <v>443</v>
       </c>
@@ -8439,7 +8470,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
         <v>445</v>
       </c>
@@ -8448,7 +8479,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
         <v>447</v>
       </c>
@@ -8457,7 +8488,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
         <v>449</v>
       </c>
@@ -8466,7 +8497,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
         <v>451</v>
       </c>
@@ -8475,7 +8506,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
         <v>453</v>
       </c>
@@ -8484,7 +8515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
         <v>454</v>
       </c>
@@ -8493,7 +8524,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
         <v>456</v>
       </c>
@@ -8502,7 +8533,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="9" t="s">
         <v>458</v>
       </c>
@@ -8511,7 +8542,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
         <v>460</v>
       </c>
@@ -8520,7 +8551,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
         <v>462</v>
       </c>
@@ -8529,7 +8560,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
         <v>464</v>
       </c>
@@ -8538,7 +8569,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="9" t="s">
         <v>466</v>
       </c>
@@ -8547,7 +8578,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
         <v>468</v>
       </c>
@@ -8556,7 +8587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="9" t="s">
         <v>469</v>
       </c>
@@ -8565,7 +8596,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="8" t="s">
         <v>471</v>
       </c>
@@ -8574,7 +8605,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="9" t="s">
         <v>473</v>
       </c>
@@ -8583,7 +8614,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
         <v>475</v>
       </c>
@@ -8592,7 +8623,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="9" t="s">
         <v>477</v>
       </c>
@@ -8601,7 +8632,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
         <v>479</v>
       </c>
@@ -8610,7 +8641,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="9" t="s">
         <v>481</v>
       </c>
@@ -8619,7 +8650,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
         <v>483</v>
       </c>
@@ -8628,7 +8659,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="9" t="s">
         <v>485</v>
       </c>
@@ -8637,7 +8668,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
         <v>487</v>
       </c>
@@ -8646,7 +8677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="9" t="s">
         <v>488</v>
       </c>
@@ -8655,7 +8686,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="8" t="s">
         <v>490</v>
       </c>
@@ -8664,7 +8695,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="9" t="s">
         <v>492</v>
       </c>
@@ -8673,7 +8704,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="8" t="s">
         <v>494</v>
       </c>
@@ -8682,7 +8713,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="9" t="s">
         <v>496</v>
       </c>
@@ -8691,7 +8722,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
         <v>498</v>
       </c>
@@ -8700,7 +8731,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="9" t="s">
         <v>500</v>
       </c>
@@ -8709,7 +8740,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
         <v>502</v>
       </c>
@@ -8718,7 +8749,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="9" t="s">
         <v>504</v>
       </c>
@@ -8727,7 +8758,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
         <v>506</v>
       </c>
@@ -8736,7 +8767,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="9" t="s">
         <v>508</v>
       </c>
@@ -8745,7 +8776,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="8" t="s">
         <v>510</v>
       </c>
@@ -8754,7 +8785,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="9" t="s">
         <v>512</v>
       </c>
@@ -8763,7 +8794,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="8" t="s">
         <v>514</v>
       </c>
@@ -8772,7 +8803,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="9" t="s">
         <v>516</v>
       </c>
@@ -8781,7 +8812,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="8" t="s">
         <v>518</v>
       </c>
@@ -8790,7 +8821,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="9" t="s">
         <v>520</v>
       </c>
@@ -8799,7 +8830,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="8" t="s">
         <v>522</v>
       </c>
@@ -8808,7 +8839,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="9" t="s">
         <v>524</v>
       </c>
@@ -8817,7 +8848,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="8" t="s">
         <v>526</v>
       </c>
@@ -8826,7 +8857,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="9" t="s">
         <v>528</v>
       </c>
@@ -8835,7 +8866,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="8" t="s">
         <v>530</v>
       </c>
@@ -8844,7 +8875,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="9" t="s">
         <v>532</v>
       </c>
@@ -8853,7 +8884,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="8" t="s">
         <v>534</v>
       </c>
@@ -8862,7 +8893,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="9" t="s">
         <v>536</v>
       </c>
@@ -8871,7 +8902,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="8" t="s">
         <v>538</v>
       </c>
@@ -8880,7 +8911,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="9" t="s">
         <v>540</v>
       </c>
@@ -8889,7 +8920,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="8" t="s">
         <v>542</v>
       </c>
@@ -8898,7 +8929,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="9" t="s">
         <v>544</v>
       </c>
@@ -8907,7 +8938,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="8" t="s">
         <v>546</v>
       </c>
@@ -8916,7 +8947,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="9" t="s">
         <v>548</v>
       </c>
@@ -8925,7 +8956,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="8" t="s">
         <v>550</v>
       </c>
@@ -8934,7 +8965,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="9" t="s">
         <v>552</v>
       </c>
@@ -8943,7 +8974,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="8" t="s">
         <v>554</v>
       </c>
@@ -8952,7 +8983,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="9" t="s">
         <v>556</v>
       </c>
@@ -8961,7 +8992,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="8" t="s">
         <v>558</v>
       </c>
@@ -8970,7 +9001,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="9" t="s">
         <v>560</v>
       </c>
@@ -8979,7 +9010,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="8" t="s">
         <v>562</v>
       </c>
@@ -8988,7 +9019,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="9" t="s">
         <v>564</v>
       </c>
@@ -8997,7 +9028,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
         <v>566</v>
       </c>
@@ -9006,7 +9037,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="9" t="s">
         <v>568</v>
       </c>
@@ -9015,7 +9046,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
         <v>570</v>
       </c>
@@ -9024,7 +9055,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="9" t="s">
         <v>572</v>
       </c>
@@ -9033,7 +9064,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="8" t="s">
         <v>574</v>
       </c>
@@ -9042,7 +9073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="9" t="s">
         <v>575</v>
       </c>
@@ -9051,7 +9082,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="8" t="s">
         <v>577</v>
       </c>
@@ -9060,7 +9091,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="9" t="s">
         <v>579</v>
       </c>
@@ -9069,7 +9100,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="8" t="s">
         <v>581</v>
       </c>
@@ -9078,7 +9109,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="9" t="s">
         <v>583</v>
       </c>
@@ -9087,7 +9118,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="8" t="s">
         <v>585</v>
       </c>
@@ -9096,7 +9127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="9" t="s">
         <v>586</v>
       </c>
@@ -9105,7 +9136,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="8" t="s">
         <v>588</v>
       </c>
@@ -9114,7 +9145,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="9" t="s">
         <v>590</v>
       </c>
@@ -9123,7 +9154,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
         <v>592</v>
       </c>
@@ -9132,7 +9163,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="9" t="s">
         <v>594</v>
       </c>
@@ -9141,7 +9172,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="8" t="s">
         <v>596</v>
       </c>
@@ -9150,7 +9181,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="9" t="s">
         <v>598</v>
       </c>
@@ -9159,7 +9190,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="8" t="s">
         <v>600</v>
       </c>
@@ -9168,7 +9199,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="9" t="s">
         <v>602</v>
       </c>
@@ -9177,7 +9208,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="8" t="s">
         <v>604</v>
       </c>
@@ -9186,7 +9217,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="9" t="s">
         <v>606</v>
       </c>
@@ -9195,7 +9226,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="8" t="s">
         <v>608</v>
       </c>
@@ -9204,7 +9235,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="9" t="s">
         <v>610</v>
       </c>
@@ -9213,7 +9244,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="8" t="s">
         <v>612</v>
       </c>
@@ -9222,7 +9253,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="9" t="s">
         <v>614</v>
       </c>
@@ -9231,7 +9262,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="8" t="s">
         <v>616</v>
       </c>
@@ -9240,7 +9271,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="9" t="s">
         <v>618</v>
       </c>
@@ -9249,7 +9280,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="8" t="s">
         <v>620</v>
       </c>
@@ -9258,7 +9289,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="9" t="s">
         <v>622</v>
       </c>
@@ -9267,7 +9298,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="8" t="s">
         <v>624</v>
       </c>
@@ -9276,7 +9307,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="9" t="s">
         <v>626</v>
       </c>
@@ -9285,7 +9316,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="8" t="s">
         <v>628</v>
       </c>
@@ -9294,7 +9325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="9" t="s">
         <v>630</v>
       </c>
@@ -9303,7 +9334,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="8" t="s">
         <v>632</v>
       </c>
@@ -9312,7 +9343,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="9" t="s">
         <v>634</v>
       </c>
@@ -9321,560 +9352,560 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="8" t="s">
         <v>636</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="9" t="s">
         <v>637</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="8" t="s">
         <v>638</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="9" t="s">
         <v>639</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="8" t="s">
         <v>640</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="9" t="s">
         <v>641</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="8" t="s">
         <v>642</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="9" t="s">
         <v>643</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="8" t="s">
         <v>644</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="9" t="s">
         <v>645</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="8" t="s">
         <v>646</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="9" t="s">
         <v>647</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="8" t="s">
         <v>648</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="9" t="s">
         <v>649</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="8" t="s">
         <v>650</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="9" t="s">
         <v>651</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="8" t="s">
         <v>652</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="9" t="s">
         <v>653</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="8" t="s">
         <v>654</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="9" t="s">
         <v>655</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="8" t="s">
         <v>656</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="9" t="s">
         <v>657</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="8" t="s">
         <v>658</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="9" t="s">
         <v>659</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="8" t="s">
         <v>660</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="9" t="s">
         <v>661</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="8" t="s">
         <v>662</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="9" t="s">
         <v>663</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="8" t="s">
         <v>664</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="9" t="s">
         <v>665</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="8" t="s">
         <v>666</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="9" t="s">
         <v>667</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="9" t="s">
         <v>669</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="8" t="s">
         <v>670</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="9" t="s">
         <v>671</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="8" t="s">
         <v>672</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="9" t="s">
         <v>673</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="8" t="s">
         <v>674</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="9" t="s">
         <v>675</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="8" t="s">
         <v>676</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="9" t="s">
         <v>677</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="8" t="s">
         <v>678</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="9" t="s">
         <v>679</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="8" t="s">
         <v>680</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="9" t="s">
         <v>681</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="8" t="s">
         <v>682</v>
       </c>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="9" t="s">
         <v>683</v>
       </c>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="8" t="s">
         <v>684</v>
       </c>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="9" t="s">
         <v>685</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="8" t="s">
         <v>686</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="9" t="s">
         <v>687</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="8" t="s">
         <v>688</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="8" t="s">
         <v>690</v>
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="9" t="s">
         <v>691</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="8" t="s">
         <v>692</v>
       </c>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="9" t="s">
         <v>693</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="8" t="s">
         <v>694</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="9" t="s">
         <v>695</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="8" t="s">
         <v>696</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="9" t="s">
         <v>697</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="8" t="s">
         <v>698</v>
       </c>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="9" t="s">
         <v>699</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="8" t="s">
         <v>700</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="9" t="s">
         <v>701</v>
       </c>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="8" t="s">
         <v>702</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="9" t="s">
         <v>703</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="8" t="s">
         <v>704</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="9" t="s">
         <v>705</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="8" t="s">
         <v>706</v>
       </c>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="9" t="s">
         <v>707</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="8" t="s">
         <v>708</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="9" t="s">
         <v>709</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="8" t="s">
         <v>710</v>
       </c>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="9" t="s">
         <v>711</v>
       </c>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="8" t="s">
         <v>712</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="9" t="s">
         <v>713</v>
       </c>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="8" t="s">
         <v>714</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="9" t="s">
         <v>715</v>
       </c>
